--- a/data.xlsx
+++ b/data.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-86.752324"</t>
+          <t>-86.752324</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>33.460088",</t>
+          <t>33.460088</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -590,14 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-94.1462"
- </t>
+          <t>-94.1462</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.1136",
- </t>
+          <t>36.1136</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -635,12 +633,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-92.405594"</t>
+          <t>-92.405594</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>34.750282",</t>
+          <t>34.750282</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -683,7 +681,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35.191661",</t>
+          <t>35.191661</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -726,7 +724,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>34.863536",</t>
+          <t>34.863536</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -769,7 +767,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>33.653791",</t>
+          <t>33.653791</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -812,7 +810,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>33.585046",</t>
+          <t>33.585046</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -855,7 +853,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>33.506471",</t>
+          <t>33.506471</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -893,14 +891,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">-111.943"
- </t>
+          <t>-111.943</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.4224",
- </t>
+          <t>33.4224</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -986,7 +982,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>32.336556",</t>
+          <t>32.336556</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1029,7 +1025,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>32.235584",</t>
+          <t>32.235584</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1201,7 +1197,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>38.596639",</t>
+          <t>38.596639</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1239,12 +1235,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-122.30663"</t>
+          <t>-122.30663</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>38.323501",</t>
+          <t>38.323501</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>37.974136",</t>
+          <t>37.974136</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1330,8 +1326,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9472",
- </t>
+          <t>38.9472</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1374,7 +1369,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>37.925907",</t>
+          <t>37.925907</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1412,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>37.892732",</t>
+          <t>37.892732</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1460,7 +1455,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>38.291326",</t>
+          <t>38.291326</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1546,7 +1541,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>37.761759",</t>
+          <t>37.761759</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1632,7 +1627,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>37.855461",</t>
+          <t>37.855461</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1675,7 +1670,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>37.880873",</t>
+          <t>37.880873</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1761,7 +1756,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>37.8376579"</t>
+          <t>37.8376579</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1804,7 +1799,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>37.812934",</t>
+          <t>37.812934</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1847,7 +1842,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>38.241187",</t>
+          <t>38.241187</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1976,7 +1971,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>37.971236",</t>
+          <t>37.971236</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2105,7 +2100,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>37.781155",</t>
+          <t>37.781155</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2148,7 +2143,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>38.403778",</t>
+          <t>38.403778</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2191,7 +2186,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>37.789948",</t>
+          <t>37.789948</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2234,7 +2229,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>37.896109",</t>
+          <t>37.896109</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2277,7 +2272,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>37.764634",</t>
+          <t>37.764634</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2320,8 +2315,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">37.76861",
-</t>
+          <t>37.76861</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2364,7 +2358,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>37.751914",</t>
+          <t>37.751914</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2402,12 +2396,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-122.45278"</t>
+          <t>-122.45278</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>37.769562",</t>
+          <t>37.769562</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2450,7 +2444,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>37.7237013"</t>
+          <t>37.7237013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2488,14 +2482,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">-122.4771"
-</t>
+          <t>-122.4771</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">37.728",
-  </t>
+          <t>37.728</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2538,7 +2530,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>37.543935",</t>
+          <t>37.543935</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2576,14 +2568,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">-121.976"
- </t>
+          <t>-121.976</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">37.3808",
- </t>
+          <t>37.3808</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2626,7 +2616,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>37.482311",</t>
+          <t>37.482311</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2669,7 +2659,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>37.442281",</t>
+          <t>37.442281</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2712,7 +2702,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>37.332295",</t>
+          <t>37.332295</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2755,7 +2745,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>37.373982",</t>
+          <t>37.373982</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2798,7 +2788,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>37.398989",</t>
+          <t>37.398989</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2884,7 +2874,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>37.3234975"</t>
+          <t>37.3234975</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2970,8 +2960,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">37.23612",
-</t>
+          <t>37.23612</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3014,7 +3003,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>36.974291",</t>
+          <t>36.974291</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3100,7 +3089,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>36.809279",</t>
+          <t>36.809279</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3138,13 +3127,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-121.90037"</t>
+          <t>-121.90037</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.58338",
-</t>
+          <t>36.58338</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3187,7 +3175,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>35.250638",</t>
+          <t>35.250638</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3316,8 +3304,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.41244",
-</t>
+          <t>34.41244</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3360,7 +3347,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>34.187709",</t>
+          <t>34.187709</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3403,7 +3390,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>34.275797",</t>
+          <t>34.275797</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3446,7 +3433,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>34.168227",</t>
+          <t>34.168227</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3489,7 +3476,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>34.151881",</t>
+          <t>34.151881</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3527,13 +3514,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-118.44504"</t>
+          <t>-118.44504</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.15067",
-</t>
+          <t>34.15067</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3576,7 +3562,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>34.157986",</t>
+          <t>34.157986</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3619,7 +3605,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>34.038516",</t>
+          <t>34.038516</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3662,7 +3648,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>34.154293",</t>
+          <t>34.154293</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3705,7 +3691,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>34.150993",</t>
+          <t>34.150993</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3748,7 +3734,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>34.053675",</t>
+          <t>34.053675</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3791,7 +3777,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>34.061192",</t>
+          <t>34.061192</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3834,7 +3820,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>34.091753",</t>
+          <t>34.091753</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3915,14 +3901,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">-118.4947"
-</t>
+          <t>-118.4947</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.0328",
- </t>
+          <t>34.0328</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3965,7 +3949,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>34.033353",</t>
+          <t>34.033353</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4003,12 +3987,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-118.36057"</t>
+          <t>-118.36057</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>34.070373",</t>
+          <t>34.070373</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4051,8 +4035,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.02194",
-</t>
+          <t>34.02194</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4095,7 +4078,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>34.1028973"</t>
+          <t>34.1028973</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4138,7 +4121,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>34.022596",</t>
+          <t>34.022596</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4176,13 +4159,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-118.14776"</t>
+          <t>-118.14776</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.1381",
- </t>
+          <t>34.1381</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4220,12 +4202,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-118.46977"</t>
+          <t>-118.46977</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>34.001301",</t>
+          <t>34.001301</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4268,7 +4250,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>34.027058",</t>
+          <t>34.027058</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4354,7 +4336,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>34.045919",</t>
+          <t>34.045919</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4483,7 +4465,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>33.847366",</t>
+          <t>33.847366</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4526,7 +4508,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>34.122944",</t>
+          <t>34.122944</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4569,7 +4551,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>33.792447",</t>
+          <t>33.792447</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4612,7 +4594,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>33.829837",</t>
+          <t>33.829837</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4655,8 +4637,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.91008",
-</t>
+          <t>33.91008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4699,7 +4680,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>33.757522",</t>
+          <t>33.757522</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4785,7 +4766,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>33.673401",</t>
+          <t>33.673401</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4823,14 +4804,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">-117.8256"
-</t>
+          <t>-117.8256</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.6963",
- </t>
+          <t>33.6963</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4959,7 +4938,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>33.543856",</t>
+          <t>33.543856</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5045,7 +5024,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>33.725591",</t>
+          <t>33.725591</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5131,7 +5110,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>32.868764",</t>
+          <t>32.868764</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5174,7 +5153,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>32.748193",</t>
+          <t>32.748193</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5260,7 +5239,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>39.3870291"</t>
+          <t>39.3870291</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5303,7 +5282,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>39.5885327"</t>
+          <t>39.5885327</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5341,12 +5320,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-105.28081"</t>
+          <t>-105.28081</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>40.026016",</t>
+          <t>40.026016</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5384,12 +5363,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>-105.25593"</t>
+          <t>-105.25593</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>40.023856",</t>
+          <t>40.023856</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5432,7 +5411,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>39.983106",</t>
+          <t>39.983106</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5475,7 +5454,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>39.9565471"</t>
+          <t>39.9565471</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5518,7 +5497,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>39.736505",</t>
+          <t>39.736505</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5604,7 +5583,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>39.623154",</t>
+          <t>39.623154</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5690,7 +5669,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>40.558999",</t>
+          <t>40.558999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5733,7 +5712,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>39.913407",</t>
+          <t>39.913407</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5776,7 +5755,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>39.754583",</t>
+          <t>39.754583</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5819,7 +5798,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>39.695988",</t>
+          <t>39.695988</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5857,12 +5836,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>-104.97578"</t>
+          <t>-104.97578</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>39.733292",</t>
+          <t>39.733292</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5905,7 +5884,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>39.592051",</t>
+          <t>39.592051</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5991,7 +5970,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>39.700741",</t>
+          <t>39.700741</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6034,7 +6013,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>39.545043",</t>
+          <t>39.545043</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6077,7 +6056,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>39.652019",</t>
+          <t>39.652019</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6115,13 +6094,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-104.87755"</t>
+          <t>-104.87755</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.42338",
-</t>
+          <t>39.42338</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6159,12 +6137,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-73.623931"</t>
+          <t>-73.623931</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>41.033122",</t>
+          <t>41.033122</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6202,12 +6180,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-73.475708"</t>
+          <t>-73.475708</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>41.377866",</t>
+          <t>41.377866</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6245,12 +6223,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-73.476173"</t>
+          <t>-73.476173</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>41.073271",</t>
+          <t>41.073271</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6288,12 +6266,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>-73.379973"</t>
+          <t>-73.379973</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>41.128085",</t>
+          <t>41.128085</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6331,12 +6309,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-73.240134"</t>
+          <t>-73.240134</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>41.158234",</t>
+          <t>41.158234</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6374,12 +6352,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-73.025162"</t>
+          <t>-73.025162</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>41.248251",</t>
+          <t>41.248251</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6417,12 +6395,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-72.838305"</t>
+          <t>-72.838305</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>41.811769",</t>
+          <t>41.811769</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6460,12 +6438,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>-72.745477"</t>
+          <t>-72.745477</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>41.784729",</t>
+          <t>41.784729</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6546,12 +6524,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>-72.607763"</t>
+          <t>-72.607763</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>41.714842",</t>
+          <t>41.714842</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6637,7 +6615,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>45.523508",</t>
+          <t>45.523508</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6675,12 +6653,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-77.079298"</t>
+          <t>-77.079298</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>38.949055",</t>
+          <t>38.949055</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6718,12 +6696,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-77.071286"</t>
+          <t>-77.071286</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>38.920936",</t>
+          <t>38.920936</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6766,7 +6744,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>38.9765737"</t>
+          <t>38.9765737</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6804,12 +6782,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-77.049016"</t>
+          <t>-77.049016</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>38.900843",</t>
+          <t>38.900843</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6847,12 +6825,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-77.033419"</t>
+          <t>-77.033419</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>38.909371",</t>
+          <t>38.909371</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6890,14 +6868,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">-77.0247"
- </t>
+          <t>-77.0247</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9196",
- </t>
+          <t>38.9196</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6935,13 +6911,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-77.005132"</t>
+          <t>-77.005132</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.88026",
-</t>
+          <t>38.88026</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6979,12 +6954,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-76.998054"</t>
+          <t>-76.998054</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>38.900447",</t>
+          <t>38.900447</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7022,12 +6997,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-77.079298"</t>
+          <t>-77.079298</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>38.949055",</t>
+          <t>38.949055</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7065,12 +7040,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-77.071286"</t>
+          <t>-77.071286</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>38.920936",</t>
+          <t>38.920936</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7113,7 +7088,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>38.9765737"</t>
+          <t>38.9765737</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7151,12 +7126,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>-77.049016"</t>
+          <t>-77.049016</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>38.900843",</t>
+          <t>38.900843</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7194,12 +7169,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-77.033419"</t>
+          <t>-77.033419</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>38.909371",</t>
+          <t>38.909371</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7237,14 +7212,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">-77.0247"
- </t>
+          <t>-77.0247</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9196",
- </t>
+          <t>38.9196</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7282,13 +7255,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-77.005132"</t>
+          <t>-77.005132</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.88026",
-</t>
+          <t>38.88026</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7326,12 +7298,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-76.998054"</t>
+          <t>-76.998054</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>38.900447",</t>
+          <t>38.900447</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7412,12 +7384,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>-84.269918"</t>
+          <t>-84.269918</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>30.462981",</t>
+          <t>30.462981</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7455,12 +7427,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-82.375989"</t>
+          <t>-82.375989</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>29.625708",</t>
+          <t>29.625708</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7503,7 +7475,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30.1849746"</t>
+          <t>30.1849746</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7541,13 +7513,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">-82.73576"
-</t>
+          <t>-82.73576</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28.016949",</t>
+          <t>28.016949</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7585,12 +7556,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>-81.390046"</t>
+          <t>-81.390046</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>30.270282",</t>
+          <t>30.270282</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7714,12 +7685,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-82.504749"</t>
+          <t>-82.504749</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>27.952455",</t>
+          <t>27.952455</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7757,12 +7728,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-82.541217"</t>
+          <t>-82.541217</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>27.337654",</t>
+          <t>27.337654</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7800,14 +7771,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">-77.0247"
- </t>
+          <t>-77.0247</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9196",
- </t>
+          <t>38.9196</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7845,12 +7814,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-82.464528"</t>
+          <t>-82.464528</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>27.386894",</t>
+          <t>27.386894</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7888,12 +7857,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-81.381454"</t>
+          <t>-81.381454</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>28.664256",</t>
+          <t>28.664256</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7974,12 +7943,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-81.363309"</t>
+          <t>-81.363309</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>28.606846",</t>
+          <t>28.606846</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8017,12 +7986,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>-81.842444"</t>
+          <t>-81.842444</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>26.547953",</t>
+          <t>26.547953</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8060,12 +8029,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-81.800214"</t>
+          <t>-81.800214</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>26.254626",</t>
+          <t>26.254626</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8146,13 +8115,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-80.206286"</t>
+          <t>-80.206286</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve">26.64126",
-</t>
+          <t>26.64126</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8238,7 +8206,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>26.2425174"</t>
+          <t>26.2425174</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8276,12 +8244,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>-80.079591"</t>
+          <t>-80.079591</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>26.439288",</t>
+          <t>26.439288</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8448,12 +8416,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-80.101005"</t>
+          <t>-80.101005</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>26.261521",</t>
+          <t>26.261521</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8491,12 +8459,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-80.117585"</t>
+          <t>-80.117585</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>26.153671",</t>
+          <t>26.153671</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8534,12 +8502,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-80.137952"</t>
+          <t>-80.137952</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>26.100564",</t>
+          <t>26.100564</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8577,12 +8545,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-80.140821"</t>
+          <t>-80.140821</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25.971134",</t>
+          <t>25.971134</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8620,14 +8588,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">-80.3233"
- </t>
+          <t>-80.3233</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve">25.6734",
- </t>
+          <t>25.6734</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8665,12 +8631,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-80.165262"</t>
+          <t>-80.165262</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>25.887864",</t>
+          <t>25.887864</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8708,12 +8674,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>-80.284659"</t>
+          <t>-80.284659</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>25.706282",</t>
+          <t>25.706282</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8751,12 +8717,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>-80.189606"</t>
+          <t>-80.189606</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>25.772077",</t>
+          <t>25.772077</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8794,13 +8760,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">-80.14119"
-</t>
+          <t>-80.14119</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>25.780968",</t>
+          <t>25.780968</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8838,12 +8803,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-84.589564"</t>
+          <t>-84.589564</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>33.997529",</t>
+          <t>33.997529</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8924,12 +8889,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-84.429551"</t>
+          <t>-84.429551</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>33.850181",</t>
+          <t>33.850181</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8967,12 +8932,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-84.379946"</t>
+          <t>-84.379946</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>33.918073",</t>
+          <t>33.918073</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9010,12 +8975,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>-84.381148"</t>
+          <t>-84.381148</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>33.840841",</t>
+          <t>33.840841</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9053,13 +9018,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-84.278488"</t>
+          <t>-84.278488</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.06934",
-</t>
+          <t>34.06934</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9097,14 +9061,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">-84.389"
-  </t>
+          <t>-84.389</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.7864",
- </t>
+          <t>33.7864</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9142,12 +9104,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-84.365756"</t>
+          <t>-84.365756</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>33.774805",</t>
+          <t>33.774805</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9185,13 +9147,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>-84.314124"</t>
+          <t>-84.314124</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.88506",
-</t>
+          <t>33.88506</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -9229,13 +9190,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">-84.28424"
-</t>
+          <t>-84.28424</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>33.792778",</t>
+          <t>33.792778</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9273,12 +9233,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-84.183577"</t>
+          <t>-84.183577</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>34.013142",</t>
+          <t>34.013142</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9316,12 +9276,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-81.071326"</t>
+          <t>-81.071326</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>32.043193",</t>
+          <t>32.043193</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9364,7 +9324,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20.891489",</t>
+          <t>20.891489</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9407,7 +9367,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21.393653",</t>
+          <t>21.393653</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9450,7 +9410,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21.277528",</t>
+          <t>21.277528</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9493,7 +9453,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>21.294663",</t>
+          <t>21.294663</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9746,13 +9706,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>-88.036448"</t>
+          <t>-88.036448</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.04245",
-</t>
+          <t>42.04245</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9790,12 +9749,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-87.943845"</t>
+          <t>-87.943845</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>42.241203",</t>
+          <t>42.241203</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9833,12 +9792,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>-87.960497"</t>
+          <t>-87.960497</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>41.893908",</t>
+          <t>41.893908</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9876,12 +9835,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-87.949487"</t>
+          <t>-87.949487</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>41.773077",</t>
+          <t>41.773077</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9919,12 +9878,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-87.916802"</t>
+          <t>-87.916802</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>41.817478",</t>
+          <t>41.817478</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9962,12 +9921,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-87.848029"</t>
+          <t>-87.848029</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>42.166232",</t>
+          <t>42.166232</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10005,12 +9964,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-87.824619"</t>
+          <t>-87.824619</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>42.010708",</t>
+          <t>42.010708</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -10048,13 +10007,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>-87.854975"</t>
+          <t>-87.854975</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.6127",
- </t>
+          <t>41.6127</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -10135,12 +10093,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-87.806366"</t>
+          <t>-87.806366</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>41.887286",</t>
+          <t>41.887286</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -10178,12 +10136,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-87.748827"</t>
+          <t>-87.748827</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>41.990369",</t>
+          <t>41.990369</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -10221,12 +10179,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-87.702023"</t>
+          <t>-87.702023</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>42.067922",</t>
+          <t>42.067922</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -10264,12 +10222,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-87.679494"</t>
+          <t>-87.679494</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>42.047623",</t>
+          <t>42.047623</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -10307,14 +10265,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">-87.6684"
- </t>
+          <t>-87.6684</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.9399",
- </t>
+          <t>41.9399</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10352,13 +10308,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>-87.660049"</t>
+          <t>-87.660049</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.99122",
-</t>
+          <t>41.99122</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10396,12 +10351,12 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-87.684647"</t>
+          <t>-87.684647</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>41.717723",</t>
+          <t>41.717723</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -10439,12 +10394,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-87.649734"</t>
+          <t>-87.649734</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>41.948349",</t>
+          <t>41.948349</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -10525,14 +10480,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">-87.6471"
- </t>
+          <t>-87.6471</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.88192",
-</t>
+          <t>41.88192</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -10570,12 +10523,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>-87.638494"</t>
+          <t>-87.638494</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>41.868502",</t>
+          <t>41.868502</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -10613,14 +10566,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">-87.62864"
-</t>
+          <t>-87.62864</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.89665",
-</t>
+          <t>41.89665</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10658,12 +10609,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-87.620864"</t>
+          <t>-87.620864</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>41.891671",</t>
+          <t>41.891671</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -10701,12 +10652,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-87.588171"</t>
+          <t>-87.588171</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>41.802025",</t>
+          <t>41.802025</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -10744,13 +10695,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-86.137108"</t>
+          <t>-86.137108</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.91418",
-</t>
+          <t>39.91418</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -10788,12 +10738,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-86.152368"</t>
+          <t>-86.152368</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>39.768591",</t>
+          <t>39.768591</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10874,12 +10824,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-86.185709"</t>
+          <t>-86.185709</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>41.699025",</t>
+          <t>41.699025</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10917,12 +10867,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-86.131076"</t>
+          <t>-86.131076</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>39.999084",</t>
+          <t>39.999084</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10960,12 +10910,12 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>-94.583348"</t>
+          <t>-94.583348</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>39.034274",</t>
+          <t>39.034274</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -11089,14 +11039,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">-94.66837"
-</t>
+          <t>-94.66837</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.91208",
-</t>
+          <t>38.91208</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -11134,14 +11082,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">-94.1462"
- </t>
+          <t>-94.1462</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.1136",
- </t>
+          <t>36.1136</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -11179,12 +11125,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>-92.405594"</t>
+          <t>-92.405594</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>34.750282",</t>
+          <t>34.750282</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -11222,12 +11168,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>-85.627028"</t>
+          <t>-85.627028</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>38.248506",</t>
+          <t>38.248506</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -11270,7 +11216,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>37.9775882"</t>
+          <t>37.9775882</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -11523,12 +11469,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>-90.117495"</t>
+          <t>-90.117495</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>29.921124",</t>
+          <t>29.921124</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -11566,13 +11512,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-90.084799"</t>
+          <t>-90.084799</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t xml:space="preserve">29.9672",
- </t>
+          <t>29.9672</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -11610,13 +11555,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">-72.55537"
-</t>
+          <t>-72.55537</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>42.353265",</t>
+          <t>42.353265</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -11654,12 +11598,12 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>-71.746577"</t>
+          <t>-71.746577</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>42.275403",</t>
+          <t>42.275403</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -11697,12 +11641,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>-71.420638"</t>
+          <t>-71.420638</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>42.567798",</t>
+          <t>42.567798</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -11740,14 +11684,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">-71.4318"
- </t>
+          <t>-71.4318</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.3612",
- </t>
+          <t>42.3612</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -11785,12 +11727,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>-71.421094"</t>
+          <t>-71.421094</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>42.298595",</t>
+          <t>42.298595</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -11828,12 +11770,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>-71.461699"</t>
+          <t>-71.461699</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>42.111262",</t>
+          <t>42.111262</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -11871,12 +11813,12 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>-71.273584"</t>
+          <t>-71.273584</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>42.491232",</t>
+          <t>42.491232</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -11957,13 +11899,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>-71.144555"</t>
+          <t>-71.144555</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.66094",
-</t>
+          <t>42.66094</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -12001,12 +11942,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-71.200137"</t>
+          <t>-71.200137</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>42.354128",</t>
+          <t>42.354128</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -12044,12 +11985,12 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>-71.206404"</t>
+          <t>-71.206404</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>42.330017",</t>
+          <t>42.330017</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -12087,12 +12028,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>-71.163527"</t>
+          <t>-71.163527</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>42.460479",</t>
+          <t>42.460479</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -12130,12 +12071,12 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>-71.159388"</t>
+          <t>-71.159388</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>42.416395",</t>
+          <t>42.416395</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -12173,12 +12114,12 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>-71.141721"</t>
+          <t>-71.141721</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>42.389065",</t>
+          <t>42.389065</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -12216,12 +12157,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>-71.126707"</t>
+          <t>-71.126707</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>42.417132",</t>
+          <t>42.417132</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -12264,7 +12205,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>42.2326354"</t>
+          <t>42.2326354</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -12302,12 +12243,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>-71.140425"</t>
+          <t>-71.140425</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>42.342859",</t>
+          <t>42.342859</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -12345,12 +12286,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>-71.114159"</t>
+          <t>-71.114159</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>42.361094",</t>
+          <t>42.361094</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -12388,12 +12329,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>-71.103179"</t>
+          <t>-71.103179</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>42.375849",</t>
+          <t>42.375849</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -12431,12 +12372,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>-71.102353"</t>
+          <t>-71.102353</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>42.368135",</t>
+          <t>42.368135</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -12474,12 +12415,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>-71.110961"</t>
+          <t>-71.110961</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>42.321389",</t>
+          <t>42.321389</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -12517,12 +12458,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>-71.062445"</t>
+          <t>-71.062445</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>42.464746",</t>
+          <t>42.464746</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -12560,12 +12501,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>-71.087272"</t>
+          <t>-71.087272</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>42.343962",</t>
+          <t>42.343962</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -12646,12 +12587,12 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>-71.066334"</t>
+          <t>-71.066334</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>42.375645",</t>
+          <t>42.375645</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -12689,13 +12630,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>-71.065447"</t>
+          <t>-71.065447</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.3619",
- </t>
+          <t>42.3619</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -12733,12 +12673,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>-71.063018"</t>
+          <t>-71.063018</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>42.345462",</t>
+          <t>42.345462</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -12776,13 +12716,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">-70.87945"
-</t>
+          <t>-70.87945</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>42.573537",</t>
+          <t>42.573537</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -12949,12 +12888,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>-70.301776"</t>
+          <t>-70.301776</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>41.672393",</t>
+          <t>41.672393</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -12992,12 +12931,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>-77.237729"</t>
+          <t>-77.237729</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>39.122641",</t>
+          <t>39.122641</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -13035,12 +12974,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>-77.112956"</t>
+          <t>-77.112956</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>39.042978",</t>
+          <t>39.042978</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -13078,12 +13017,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>-77.104163"</t>
+          <t>-77.104163</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>38.966156",</t>
+          <t>38.966156</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -13121,12 +13060,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>-77.086646"</t>
+          <t>-77.086646</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>38.960896",</t>
+          <t>38.960896</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -13164,12 +13103,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>-77.024091"</t>
+          <t>-77.024091</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>38.996059",</t>
+          <t>38.996059</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -13207,12 +13146,12 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>-76.936683"</t>
+          <t>-76.936683</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>38.969186",</t>
+          <t>38.969186</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -13250,12 +13189,12 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>-76.855891"</t>
+          <t>-76.855891</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>39.213938",</t>
+          <t>39.213938</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -13293,12 +13232,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>-76.649505"</t>
+          <t>-76.649505</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>39.368299",</t>
+          <t>39.368299</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -13379,14 +13318,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">-76.5985"
- </t>
+          <t>-76.5985</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.2829",
- </t>
+          <t>39.2829</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -13429,7 +13366,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>38.982091",</t>
+          <t>38.982091</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -13467,12 +13404,12 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>-70.258754"</t>
+          <t>-70.258754</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>43.663298",</t>
+          <t>43.663298</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -13510,12 +13447,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>-85.592794"</t>
+          <t>-85.592794</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>42.911088",</t>
+          <t>42.911088</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -13553,12 +13490,12 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>-84.453004"</t>
+          <t>-84.453004</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>42.728207",</t>
+          <t>42.728207</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -13596,12 +13533,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>-83.758168"</t>
+          <t>-83.758168</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>42.248543",</t>
+          <t>42.248543</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -13639,12 +13576,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>-83.698198"</t>
+          <t>-83.698198</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>42.258059",</t>
+          <t>42.258059</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -13725,13 +13662,12 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>-83.191685"</t>
+          <t>-83.191685</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.68214",
-</t>
+          <t>42.68214</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -13769,12 +13705,12 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-83.194466"</t>
+          <t>-83.194466</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>42.546736",</t>
+          <t>42.546736</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -13855,13 +13791,12 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">-93.44569"
-</t>
+          <t>-93.44569</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>44.973958",</t>
+          <t>44.973958</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -13899,12 +13834,12 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>-93.435945"</t>
+          <t>-93.435945</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>45.091528",</t>
+          <t>45.091528</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -13942,12 +13877,12 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>-93.328011"</t>
+          <t>-93.328011</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>44.867687",</t>
+          <t>44.867687</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -13985,12 +13920,12 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>-93.322363"</t>
+          <t>-93.322363</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>44.947565",</t>
+          <t>44.947565</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -14028,12 +13963,12 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>-93.269054"</t>
+          <t>-93.269054</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>44.982511",</t>
+          <t>44.982511</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -14071,12 +14006,12 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-93.166733"</t>
+          <t>-93.166733</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>44.946689",</t>
+          <t>44.946689</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -14157,12 +14092,12 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>-94.583348"</t>
+          <t>-94.583348</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>39.034274",</t>
+          <t>39.034274</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -14200,12 +14135,12 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>-90.515871"</t>
+          <t>-90.515871</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>38.622092",</t>
+          <t>38.622092</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -14248,7 +14183,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>38.6270529"</t>
+          <t>38.6270529</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -14329,12 +14264,12 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>-90.149828"</t>
+          <t>-90.149828</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>32.354698",</t>
+          <t>32.354698</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -14372,14 +14307,12 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">-118.4947"
-</t>
+          <t>-118.4947</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.0328",
- </t>
+          <t>34.0328</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -14422,7 +14355,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>45.6717943"</t>
+          <t>45.6717943</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -14460,12 +14393,12 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>-82.554715"</t>
+          <t>-82.554715</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>35.601892",</t>
+          <t>35.601892</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -14546,12 +14479,12 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>-82.521395"</t>
+          <t>-82.521395</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>35.501038",</t>
+          <t>35.501038</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -14589,12 +14522,12 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-80.871661"</t>
+          <t>-80.871661</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>35.444104",</t>
+          <t>35.444104</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -14632,14 +14565,12 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">-80.8465"
- </t>
+          <t>-80.8465</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t xml:space="preserve">35.2212",
- </t>
+          <t>35.2212</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -14677,12 +14608,12 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>-80.830176"</t>
+          <t>-80.830176</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>35.147279",</t>
+          <t>35.147279</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -14763,13 +14694,12 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>-80.273814"</t>
+          <t>-80.273814</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.09418",
-</t>
+          <t>36.09418</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -14807,12 +14737,12 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>-79.834028"</t>
+          <t>-79.834028</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>36.085624",</t>
+          <t>36.085624</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -14850,12 +14780,12 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>-79.027569"</t>
+          <t>-79.027569</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>35.934529",</t>
+          <t>35.934529</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -14893,12 +14823,12 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>-78.920644"</t>
+          <t>-78.920644</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>36.007046",</t>
+          <t>36.007046</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -14936,12 +14866,12 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>-78.882466"</t>
+          <t>-78.882466</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>35.833593",</t>
+          <t>35.833593</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -14979,12 +14909,12 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>-78.777234"</t>
+          <t>-78.777234</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>35.737361",</t>
+          <t>35.737361</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -15065,12 +14995,12 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>-78.686355"</t>
+          <t>-78.686355</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>35.802456",</t>
+          <t>35.802456</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -15108,12 +15038,12 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>-77.900814"</t>
+          <t>-77.900814</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>34.213686",</t>
+          <t>34.213686</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -15151,13 +15081,12 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-96.638998"</t>
+          <t>-96.638998</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.81291",
-</t>
+          <t>40.81291</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -15195,12 +15124,12 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-96.068483"</t>
+          <t>-96.068483</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>41.261903",</t>
+          <t>41.261903</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -15281,13 +15210,12 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>-71.496514"</t>
+          <t>-71.496514</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.77957",
-</t>
+          <t>42.77957</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -15325,12 +15253,12 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>-70.793659"</t>
+          <t>-70.793659</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>43.089217",</t>
+          <t>43.089217</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -15411,12 +15339,12 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>-74.937997"</t>
+          <t>-74.937997</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>39.908072",</t>
+          <t>39.908072</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -15454,12 +15382,12 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>-74.668208"</t>
+          <t>-74.668208</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>40.308146",</t>
+          <t>40.308146</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -15497,12 +15425,12 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>-74.562346"</t>
+          <t>-74.562346</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>40.576239",</t>
+          <t>40.576239</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -15540,12 +15468,12 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>-74.488784"</t>
+          <t>-74.488784</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>40.799238",</t>
+          <t>40.799238</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -15583,12 +15511,12 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>-74.431896"</t>
+          <t>-74.431896</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>40.875332",</t>
+          <t>40.875332</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -15626,12 +15554,12 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>-74.405429"</t>
+          <t>-74.405429</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>40.753479",</t>
+          <t>40.753479</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -15669,14 +15597,12 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">-74.366"
-  </t>
+          <t>-74.366</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.5398",
- </t>
+          <t>40.5398</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -15714,12 +15640,12 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>-74.226614"</t>
+          <t>-74.226614</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>40.930789",</t>
+          <t>40.930789</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -15843,12 +15769,12 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>-74.248906"</t>
+          <t>-74.248906</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>40.804218",</t>
+          <t>40.804218</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -15886,12 +15812,12 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>-74.223046"</t>
+          <t>-74.223046</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>40.818472",</t>
+          <t>40.818472</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -15972,12 +15898,12 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>-74.122564"</t>
+          <t>-74.122564</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>40.978372",</t>
+          <t>40.978372</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -16015,13 +15941,12 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">-74.17011"
-</t>
+          <t>-74.17011</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>40.740059",</t>
+          <t>40.740059</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -16145,14 +16070,12 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">-74.03715"
-</t>
+          <t>-74.03715</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.71789",
-</t>
+          <t>40.71789</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -16190,12 +16113,12 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>-74.022937"</t>
+          <t>-74.022937</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>40.761809",</t>
+          <t>40.761809</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -16276,12 +16199,12 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>-73.973742"</t>
+          <t>-73.973742</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>40.824835",</t>
+          <t>40.824835</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -16319,12 +16242,12 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>-74.087337"</t>
+          <t>-74.087337</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>40.375373",</t>
+          <t>40.375373</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -16362,12 +16285,12 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>-74.056864"</t>
+          <t>-74.056864</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>40.154645",</t>
+          <t>40.154645</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -16410,8 +16333,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t xml:space="preserve">35.10267",
-</t>
+          <t>35.10267</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -16454,7 +16376,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>35.146488",</t>
+          <t>35.146488</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -16497,7 +16419,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>35.678896",</t>
+          <t>35.678896</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -16583,7 +16505,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>36.1577904"</t>
+          <t>36.1577904</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -16626,8 +16548,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.19757",
-</t>
+          <t>36.19757</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -16751,12 +16672,12 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>-74.011563"</t>
+          <t>-74.011563</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>40.715619",</t>
+          <t>40.715619</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -16794,12 +16715,12 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>-73.999959"</t>
+          <t>-73.999959</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>40.752762",</t>
+          <t>40.752762</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -16837,14 +16758,12 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">-74.0122"
- </t>
+          <t>-74.0122</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.70705",
-</t>
+          <t>40.70705</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -16882,12 +16801,12 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>-73.995347"</t>
+          <t>-73.995347</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>40.745113",</t>
+          <t>40.745113</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -16925,12 +16844,12 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>-73.983007"</t>
+          <t>-73.983007</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>40.767879",</t>
+          <t>40.767879</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -16968,12 +16887,12 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>-73.991243"</t>
+          <t>-73.991243</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>40.734741",</t>
+          <t>40.734741</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -17011,12 +16930,12 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>-73.984832"</t>
+          <t>-73.984832</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>40.754632",</t>
+          <t>40.754632</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -17054,12 +16973,12 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>-73.992409"</t>
+          <t>-73.992409</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>40.723779",</t>
+          <t>40.723779</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -17140,14 +17059,12 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.9668"
- </t>
+          <t>-73.9668</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.79417",
-</t>
+          <t>40.79417</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -17185,13 +17102,12 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>-73.966348"</t>
+          <t>-73.966348</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.75958",
-</t>
+          <t>40.75958</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -17229,12 +17145,12 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>-73.946138"</t>
+          <t>-73.946138</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>40.807597",</t>
+          <t>40.807597</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -17272,13 +17188,12 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.95295"
-</t>
+          <t>-73.95295</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>40.779742",</t>
+          <t>40.779742</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -17316,12 +17231,12 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>-78.816984"</t>
+          <t>-78.816984</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>42.979048",</t>
+          <t>42.979048</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -17359,12 +17274,12 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>-77.550309"</t>
+          <t>-77.550309</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>43.114125",</t>
+          <t>43.114125</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -17407,7 +17322,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>42.7089555"</t>
+          <t>42.7089555</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -17441,12 +17356,12 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>-74.011742"</t>
+          <t>-74.011742</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>40.654445",</t>
+          <t>40.654445</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -17484,12 +17399,12 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>-73.988853"</t>
+          <t>-73.988853</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>40.675028",</t>
+          <t>40.675028</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -17527,13 +17442,12 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.97841"
-</t>
+          <t>-73.97841</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>40.686609",</t>
+          <t>40.686609</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -17571,12 +17485,12 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>-73.959802"</t>
+          <t>-73.959802</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>40.716168",</t>
+          <t>40.716168</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -17657,13 +17571,12 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.75497"
-</t>
+          <t>-73.75497</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>41.177948",</t>
+          <t>41.177948</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -17701,12 +17614,12 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>-73.758904"</t>
+          <t>-73.758904</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>41.028294",</t>
+          <t>41.028294</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -17787,12 +17700,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>-73.670765"</t>
+          <t>-73.670765</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>40.797214",</t>
+          <t>40.797214</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -17830,14 +17743,12 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.60778"
-</t>
+          <t>-73.60778</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.7428",
- </t>
+          <t>40.7428</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -17875,12 +17786,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>-73.534703"</t>
+          <t>-73.534703</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>40.788943",</t>
+          <t>40.788943</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -17918,12 +17829,12 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>-73.443629"</t>
+          <t>-73.443629</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>40.675976",</t>
+          <t>40.675976</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -17961,12 +17872,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>-73.284123"</t>
+          <t>-73.284123</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>40.838117",</t>
+          <t>40.838117</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -18004,13 +17915,12 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t xml:space="preserve">-73.12585"
-</t>
+          <t>-73.12585</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>40.869705",</t>
+          <t>40.869705</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -18048,13 +17958,12 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>-84.447324"</t>
+          <t>-84.447324</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t xml:space="preserve">39.14547",
-</t>
+          <t>39.14547</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -18092,12 +18001,12 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>-84.373899"</t>
+          <t>-84.373899</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>39.205289",</t>
+          <t>39.205289</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -18178,12 +18087,12 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>-84.190303"</t>
+          <t>-84.190303</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>39.626787",</t>
+          <t>39.626787</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -18221,12 +18130,12 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>-83.086634"</t>
+          <t>-83.086634</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>40.098628",</t>
+          <t>40.098628</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -18307,12 +18216,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>-82.909634"</t>
+          <t>-82.909634</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>40.056875",</t>
+          <t>40.056875</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -18350,12 +18259,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>-81.840031"</t>
+          <t>-81.840031</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>41.478792",</t>
+          <t>41.478792</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -18398,7 +18307,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>41.5008555"</t>
+          <t>41.5008555</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -18436,12 +18345,12 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>-81.571348"</t>
+          <t>-81.571348</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>41.110953",</t>
+          <t>41.110953</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -18479,13 +18388,12 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>-81.484869"</t>
+          <t>-81.484869</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.45009",
-</t>
+          <t>41.45009</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -18523,12 +18431,12 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>-97.530387"</t>
+          <t>-97.530387</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>35.534037",</t>
+          <t>35.534037</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -18566,13 +18474,12 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t xml:space="preserve">-95.97313"
-</t>
+          <t>-95.97313</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>36.104769",</t>
+          <t>36.104769</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -18658,7 +18565,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>44.056252",</t>
+          <t>44.056252</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -18701,7 +18608,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>44.050111",</t>
+          <t>44.050111</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -18744,7 +18651,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>45.394432",</t>
+          <t>45.394432</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -18830,7 +18737,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>45.442495",</t>
+          <t>45.442495</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -18868,12 +18775,12 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>-122.63672"</t>
+          <t>-122.63672</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>45.523118",</t>
+          <t>45.523118</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -18916,7 +18823,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>45.523508",</t>
+          <t>45.523508</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -18954,12 +18861,12 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>-122.61867"</t>
+          <t>-122.61867</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>45.536961",</t>
+          <t>45.536961</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -19002,8 +18909,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t xml:space="preserve">45.54906",
-</t>
+          <t>45.54906</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -19170,14 +19076,12 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t xml:space="preserve">-79.9286"
- </t>
+          <t>-79.9286</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.4622",
- </t>
+          <t>40.4622</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -19215,12 +19119,12 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>-76.313169"</t>
+          <t>-76.313169</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>40.065349",</t>
+          <t>40.065349</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -19301,13 +19205,12 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>-75.627998"</t>
+          <t>-75.627998</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t xml:space="preserve">40.0303",
- </t>
+          <t>40.0303</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -19388,12 +19291,12 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>-75.411115"</t>
+          <t>-75.411115</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>40.048876",</t>
+          <t>40.048876</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -19431,12 +19334,12 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>-75.403903"</t>
+          <t>-75.403903</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>39.987825",</t>
+          <t>39.987825</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -19517,12 +19420,12 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>-75.227542"</t>
+          <t>-75.227542</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>40.188211",</t>
+          <t>40.188211</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -19565,7 +19468,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>40.0019522"</t>
+          <t>40.0019522</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -19603,12 +19506,12 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>-75.174306"</t>
+          <t>-75.174306</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>39.963185",</t>
+          <t>39.963185</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -19646,12 +19549,12 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>-75.116061"</t>
+          <t>-75.116061</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>40.107871",</t>
+          <t>40.107871</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -19689,12 +19592,12 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>-75.157883"</t>
+          <t>-75.157883</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>39.942897",</t>
+          <t>39.942897</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -19732,12 +19635,12 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>-71.456046"</t>
+          <t>-71.456046</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>41.755906",</t>
+          <t>41.755906</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -19775,13 +19678,12 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>-71.408307"</t>
+          <t>-71.408307</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.83714",
-</t>
+          <t>41.83714</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -19819,12 +19721,12 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>-71.386189"</t>
+          <t>-71.386189</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>41.827787",</t>
+          <t>41.827787</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -19862,12 +19764,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>-82.521395"</t>
+          <t>-82.521395</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>35.501038",</t>
+          <t>35.501038</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -19905,12 +19807,12 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>-82.300837"</t>
+          <t>-82.300837</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>34.825521",</t>
+          <t>34.825521</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -19948,13 +19850,12 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>-80.975304"</t>
+          <t>-80.975304</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t xml:space="preserve">33.9931",
- </t>
+          <t>33.9931</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -19992,12 +19893,12 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>-80.716653"</t>
+          <t>-80.716653</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>32.187478",</t>
+          <t>32.187478</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -20035,12 +19936,12 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>-79.996381"</t>
+          <t>-79.996381</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>32.782649",</t>
+          <t>32.782649</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -20078,12 +19979,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>-79.889113"</t>
+          <t>-79.889113</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>32.802162",</t>
+          <t>32.802162</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -20121,12 +20022,12 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>-89.894177"</t>
+          <t>-89.894177</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>35.113149",</t>
+          <t>35.113149</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -20207,13 +20108,12 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t xml:space="preserve">-86.8185"
- </t>
+          <t>-86.8185</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>36.103133",</t>
+          <t>36.103133</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -20251,14 +20151,12 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t xml:space="preserve">-86.7886"
- </t>
+          <t>-86.7886</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.1563",
- </t>
+          <t>36.1563</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -20296,12 +20194,12 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>-86.824652"</t>
+          <t>-86.824652</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>35.934445",</t>
+          <t>35.934445</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -20382,12 +20280,12 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>-85.156119"</t>
+          <t>-85.156119</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>35.023851",</t>
+          <t>35.023851</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -20425,13 +20323,12 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t xml:space="preserve">-84.01555"
-</t>
+          <t>-84.01555</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>35.933145",</t>
+          <t>35.933145</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -20474,7 +20371,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>31.834063",</t>
+          <t>31.834063</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -20512,13 +20409,12 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t xml:space="preserve">-97.41296"
-</t>
+          <t>-97.41296</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>32.700021",</t>
+          <t>32.700021</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -20556,12 +20452,12 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>-97.084357"</t>
+          <t>-97.084357</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>33.072621",</t>
+          <t>33.072621</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
@@ -20599,12 +20495,12 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>-97.155465"</t>
+          <t>-97.155465</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>32.879212",</t>
+          <t>32.879212</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -20642,12 +20538,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>-97.098904"</t>
+          <t>-97.098904</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>32.766919",</t>
+          <t>32.766919</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -20685,12 +20581,12 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>-96.960361"</t>
+          <t>-96.960361</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>32.901281",</t>
+          <t>32.901281</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -20728,12 +20624,12 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>-96.796754"</t>
+          <t>-96.796754</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>33.029281",</t>
+          <t>33.029281</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
@@ -20771,12 +20667,12 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-96.821423"</t>
+          <t>-96.821423</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>32.953182",</t>
+          <t>32.953182</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -20814,12 +20710,12 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>-96.803062"</t>
+          <t>-96.803062</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>32.907312",</t>
+          <t>32.907312</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -20857,14 +20753,12 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t xml:space="preserve">-96.81471"
-</t>
+          <t>-96.81471</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t xml:space="preserve">32.82044",
-</t>
+          <t>32.82044</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -21031,13 +20925,12 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>-96.801691"</t>
+          <t>-96.801691</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t xml:space="preserve">32.79542",
-</t>
+          <t>32.79542</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -21075,12 +20968,12 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>-96.752321"</t>
+          <t>-96.752321</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>32.815669",</t>
+          <t>32.815669</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -21118,12 +21011,12 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>-98.510941"</t>
+          <t>-98.510941</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>29.613119",</t>
+          <t>29.613119</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -21204,12 +21097,12 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>-97.937572"</t>
+          <t>-97.937572</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>30.307525",</t>
+          <t>30.307525</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -21247,12 +21140,12 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>-98.480574"</t>
+          <t>-98.480574</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>29.493296",</t>
+          <t>29.493296</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -21290,12 +21183,12 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>-97.741483"</t>
+          <t>-97.741483</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>30.389293",</t>
+          <t>30.389293</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -21333,12 +21226,12 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>-97.720025"</t>
+          <t>-97.720025</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>30.406373",</t>
+          <t>30.406373</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -21376,12 +21269,12 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>-97.841947"</t>
+          <t>-97.841947</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>30.220346",</t>
+          <t>30.220346</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -21419,12 +21312,12 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>-97.753388"</t>
+          <t>-97.753388</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>30.270598",</t>
+          <t>30.270598</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -21462,14 +21355,12 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t xml:space="preserve">-97.73363"
-</t>
+          <t>-97.73363</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t xml:space="preserve">30.26396",
-</t>
+          <t>30.26396</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -21507,12 +21398,12 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>-95.771282"</t>
+          <t>-95.771282</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>29.712195",</t>
+          <t>29.712195</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -21550,12 +21441,12 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>-95.470834"</t>
+          <t>-95.470834</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>30.169391",</t>
+          <t>30.169391</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -21593,12 +21484,12 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>-95.562013"</t>
+          <t>-95.562013</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>29.998395",</t>
+          <t>29.998395</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -21679,12 +21570,12 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>-95.623382"</t>
+          <t>-95.623382</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>29.600051",</t>
+          <t>29.600051</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -21722,13 +21613,12 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>-95.499911"</t>
+          <t>-95.499911</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t xml:space="preserve">29.75252",
-</t>
+          <t>29.75252</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -21766,13 +21656,12 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t xml:space="preserve">-95.46192"
-</t>
+          <t>-95.46192</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>29.749298",</t>
+          <t>29.749298</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -21810,14 +21699,12 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t xml:space="preserve">-95.3981"
- </t>
+          <t>-95.3981</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t xml:space="preserve">29.8139",
- </t>
+          <t>29.8139</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -21855,13 +21742,12 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>-95.441443"</t>
+          <t>-95.441443</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t xml:space="preserve">29.70693",
-</t>
+          <t>29.70693</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -21899,12 +21785,12 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>-95.418147"</t>
+          <t>-95.418147</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>29.739315",</t>
+          <t>29.739315</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -21942,12 +21828,12 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>-95.397559"</t>
+          <t>-95.397559</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>29.758033",</t>
+          <t>29.758033</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -21990,7 +21876,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>40.625077",</t>
+          <t>40.625077</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -22033,7 +21919,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>40.757926",</t>
+          <t>40.757926</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -22071,12 +21957,12 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>-111.85894"</t>
+          <t>-111.85894</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>40.723719",</t>
+          <t>40.723719</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -22119,7 +22005,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>40.727189",</t>
+          <t>40.727189</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -22157,13 +22043,12 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>-76.027984"</t>
+          <t>-76.027984</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t xml:space="preserve">36.85069",
-</t>
+          <t>36.85069</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -22244,12 +22129,12 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>-77.484275"</t>
+          <t>-77.484275</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>39.068415",</t>
+          <t>39.068415</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -22373,12 +22258,12 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>-77.262963"</t>
+          <t>-77.262963</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>38.902421",</t>
+          <t>38.902421</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -22416,14 +22301,12 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t xml:space="preserve">-77.2331"
- </t>
+          <t>-77.2331</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9251",
- </t>
+          <t>38.9251</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -22461,12 +22344,12 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>-77.205047"</t>
+          <t>-77.205047</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>38.902898",</t>
+          <t>38.902898</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -22590,12 +22473,12 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>-77.091065"</t>
+          <t>-77.091065</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>38.889049",</t>
+          <t>38.889049</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -22633,12 +22516,12 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>-77.054583"</t>
+          <t>-77.054583</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>38.862695",</t>
+          <t>38.862695</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -22676,12 +22559,12 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>-77.059969"</t>
+          <t>-77.059969</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>38.804089",</t>
+          <t>38.804089</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -22719,12 +22602,12 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>-77.461533"</t>
+          <t>-77.461533</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>37.557842",</t>
+          <t>37.557842</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -22805,12 +22688,12 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>-77.079298"</t>
+          <t>-77.079298</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>38.949055",</t>
+          <t>38.949055</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -22848,12 +22731,12 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>-77.071286"</t>
+          <t>-77.071286</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>38.920936",</t>
+          <t>38.920936</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -22896,7 +22779,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>38.9765737"</t>
+          <t>38.9765737</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -22934,12 +22817,12 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>-77.049016"</t>
+          <t>-77.049016</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>38.900843",</t>
+          <t>38.900843</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -22977,12 +22860,12 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>-77.033419"</t>
+          <t>-77.033419</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>38.909371",</t>
+          <t>38.909371</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -23020,14 +22903,12 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t xml:space="preserve">-77.0247"
- </t>
+          <t>-77.0247</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.9196",
- </t>
+          <t>38.9196</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -23065,13 +22946,12 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>-77.005132"</t>
+          <t>-77.005132</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t xml:space="preserve">38.88026",
-</t>
+          <t>38.88026</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -23109,12 +22989,12 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>-76.998054"</t>
+          <t>-76.998054</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>38.900447",</t>
+          <t>38.900447</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -23157,7 +23037,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>47.227235",</t>
+          <t>47.227235</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -23200,7 +23080,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>47.560745",</t>
+          <t>47.560745</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -23243,7 +23123,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>47.618361",</t>
+          <t>47.618361</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -23281,14 +23161,12 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t xml:space="preserve">-122.321"
- </t>
+          <t>-122.321</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t xml:space="preserve">47.6113",
- </t>
+          <t>47.6113</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -23331,7 +23209,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>47.618249",</t>
+          <t>47.618249</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -23417,7 +23295,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>47.666262",</t>
+          <t>47.666262</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -23460,7 +23338,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>47.675254",</t>
+          <t>47.675254</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -23503,7 +23381,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>47.711523",</t>
+          <t>47.711523</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -23546,7 +23424,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>47.819814",</t>
+          <t>47.819814</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -23632,7 +23510,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>39.695988",</t>
+          <t>39.695988</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -23670,12 +23548,12 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>-76.649505"</t>
+          <t>-76.649505</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>39.368299",</t>
+          <t>39.368299</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -23713,14 +23591,12 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t xml:space="preserve">-89.45844"
-</t>
+          <t>-89.45844</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t xml:space="preserve">43.07461",
-</t>
+          <t>43.07461</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -23849,7 +23725,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>43.4636658"</t>
+          <t>43.4636658</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
